--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Escenario Numero</t>
+    <t>Minuto</t>
+  </si>
+  <si>
+    <t>Cantidad Escenarios</t>
   </si>
   <si>
     <t>Paquete 0</t>
@@ -32,16 +35,10 @@
     <t>Paquete 4</t>
   </si>
   <si>
-    <t>0</t>
+    <t>03:03:25</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10:12:25</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -111,25 +108,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
